--- a/documents/内部設計/ファイル構成一覧表_D2.xlsx
+++ b/documents/内部設計/ファイル構成一覧表_D2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059A52B6-0B43-412F-ACFC-D92902895968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD597A0C-0B1E-4949-BE13-E47F5FBCCD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -95,19 +95,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Users.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -131,16 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User1行分のデータを持つ、エンティティモデル</t>
     <rPh sb="5" eb="6">
       <t>ギョウ</t>
@@ -154,35 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品関連のデータ操作モデル</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品1行分のデータを持つ、エンティティモデル</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/WEB-INF/jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,48 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Questions.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Answers.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Histories.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Questions関連のデータ操作モデル</t>
-    <rPh sb="9" eb="11">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Answers関連のデータ操作モデル</t>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Histories関連のデータ操作モデル</t>
-    <rPh sb="9" eb="11">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>search.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,6 +548,30 @@
   </si>
   <si>
     <t>answer_update.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Historie.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question1行分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer1行分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Historie1行分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -680,7 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,10 +658,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,6 +682,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1047,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H37"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1083,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
@@ -1101,7 +1039,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1118,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1138,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1158,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1178,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1198,10 +1136,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1218,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1241,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1258,10 +1196,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1278,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1298,50 +1236,50 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="4">
-        <f t="shared" ref="B14:B37" si="1">ROW()-2</f>
+    <row r="14" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="5">
+        <f t="shared" ref="B14:B34" si="1">ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1351,17 +1289,17 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1371,77 +1309,77 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1452,16 +1390,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1472,16 +1410,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1492,16 +1430,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1512,16 +1450,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1532,16 +1470,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1552,16 +1490,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1572,16 +1510,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1592,16 +1530,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1612,16 +1550,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1632,16 +1570,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1652,16 +1590,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1672,16 +1610,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1692,16 +1630,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1712,84 +1650,24 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H37" xr:uid="{01788D64-25E1-424A-A2EF-0AE5396C1608}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H34" xr:uid="{01788D64-25E1-424A-A2EF-0AE5396C1608}">
       <formula1>"影山,畔柳,須田,田島,乘川,横田"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1799,21 +1677,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1984,32 +1847,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2026,4 +1879,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/内部設計/ファイル構成一覧表_D2.xlsx
+++ b/documents/内部設計/ファイル構成一覧表_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD597A0C-0B1E-4949-BE13-E47F5FBCCD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84F080-DE7C-44D4-803F-DD20631C5919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -559,10 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Historie.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Question1行分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -571,7 +567,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Historie1行分のデータを持つ、エンティティモデル</t>
+    <t>History.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>History1行分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -682,10 +682,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -987,9 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1279,7 +1273,7 @@
         <v>75</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1299,7 +1293,7 @@
         <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1316,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>80</v>
@@ -1677,6 +1671,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1847,22 +1856,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1879,29 +1898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/内部設計/ファイル構成一覧表_D2.xlsx
+++ b/documents/内部設計/ファイル構成一覧表_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84F080-DE7C-44D4-803F-DD20631C5919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140470C-88C7-4990-AAA3-611232836F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="119">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -265,19 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴関連のデータアクセス用DAO</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問関連のデータアクセス用DAO</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -300,10 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HistoriesDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>search.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -567,11 +550,296 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>History.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>History1行分のデータを持つ、エンティティモデル</t>
+    <t>QuestionsAnswersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuestionsAnswers.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User・質問・回答を内部結合させたテーブルのデータアクセス用DAO</t>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User・質問・回答を内部結合させたテーブルのデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuestionListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrudServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AjaxServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新画面遷移・削除用</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ajax実行用</t>
+    <rPh sb="4" eb="7">
+      <t>ジッコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuesrionsDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QustionsAnswersDaoTest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複合検索・ソート機能のテストプログラム</t>
+    <rPh sb="0" eb="4">
+      <t>フクゴウケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面のソート機能のテストプログラム</t>
+    <rPh sb="0" eb="4">
+      <t>リレキガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/components</t>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/components</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modal_dark.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modal.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルのモーダルウィンドウ用</t>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフォメーションボタン用</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>darkmode.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jquery.simpleWeather.min.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jquesry-3.6.0.min.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paginathing.min.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>printThis.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search-pag.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報のAPIを使った経度緯度から現在地の天気を表示</t>
+    <rPh sb="0" eb="4">
+      <t>テンキヨホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケイドイド</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダークモード用</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jqueryを利用するためのプラグイン</t>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページネーション用</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷機能用</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷機能用</t>
+    <rPh sb="0" eb="4">
+      <t>インサツキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔柳</t>
+    <rPh sb="0" eb="2">
+      <t>クロヤナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>須田</t>
+    <rPh sb="0" eb="2">
+      <t>スダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田島</t>
+    <rPh sb="0" eb="2">
+      <t>タジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影山</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乘川</t>
+    <rPh sb="0" eb="2">
+      <t>ノリカワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -645,7 +913,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,6 +934,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,16 +1252,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H34"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
     <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="6" max="6" width="59.875" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1015,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
@@ -1035,12 +1306,14 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B13" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B50" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1055,7 +1328,9 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1075,12 +1350,16 @@
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1095,12 +1374,16 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1110,13 +1393,17 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1130,13 +1417,17 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1155,8 +1446,12 @@
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1167,16 +1462,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1187,15 +1486,17 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -1207,15 +1508,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1230,197 +1533,229 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
-        <f t="shared" ref="B14:B34" si="1">ROW()-2</f>
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1430,17 +1765,21 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1450,218 +1789,602 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H34" xr:uid="{01788D64-25E1-424A-A2EF-0AE5396C1608}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H50" xr:uid="{01788D64-25E1-424A-A2EF-0AE5396C1608}">
       <formula1>"影山,畔柳,須田,田島,乘川,横田"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1671,21 +2394,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1856,32 +2564,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1898,4 +2596,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>